--- a/home04/base.data.xlsx
+++ b/home04/base.data.xlsx
@@ -172,7 +172,596 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'result.data'!$A$1:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>763.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>786.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>772.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>782.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>786.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>801.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>769.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>784.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>794.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>568.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>477.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>474.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>478.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>494.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>493.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>479.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>486.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>489.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>442.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>488.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>477.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>490.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>477.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>475.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>487.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>492.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>486.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>483.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>492.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>474.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>445.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>474.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>469.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>466.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>489.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>445.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>490.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>475.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>486.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>491.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>465.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>480.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>469.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>486.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>466.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>491.1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>477.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>488.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="95521918"/>
+        <c:axId val="99767321"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95521918"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99767321"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99767321"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95521918"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'result.data'!$A$50:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>486.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>469.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>486.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>466.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>491.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>477.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>488.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="6671349"/>
+        <c:axId val="78471323"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="6671349"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78471323"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78471323"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6671349"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -421,11 +1010,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="91175253"/>
-        <c:axId val="22063459"/>
+        <c:axId val="8743462"/>
+        <c:axId val="15020097"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91175253"/>
+        <c:axId val="8743462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,14 +1042,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22063459"/>
+        <c:crossAx val="15020097"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22063459"/>
+        <c:axId val="15020097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +1086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91175253"/>
+        <c:crossAx val="8743462"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -545,7 +1134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -653,11 +1242,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="92694501"/>
-        <c:axId val="11002266"/>
+        <c:axId val="42283477"/>
+        <c:axId val="61526308"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92694501"/>
+        <c:axId val="42283477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +1274,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11002266"/>
+        <c:crossAx val="61526308"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11002266"/>
+        <c:axId val="61526308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,596 +1318,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92694501"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'result.data'!$A$1:$A$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>763.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>786.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>772.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>782.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>786.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>801.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>769.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>784.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>794.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>568.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>477.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>474.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>460.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>478.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>493.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>479.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>450.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>486.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>489.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>442.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>488.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>477.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>490.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>477.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>475.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>487.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>492.3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>486.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>437.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>483.9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>492.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>474.4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>445.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>474.3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>469.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>466.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>489.6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>445.8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>490.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>475.3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>486.4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>491.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>465.6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>480.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>469.9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>486.6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>466.7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>491.1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>477.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>488.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="74647100"/>
-        <c:axId val="40737842"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="74647100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="40737842"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="40737842"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74647100"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'result.data'!$A$50:$A$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>486.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>491.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>465.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>480.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>469.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>486.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>466.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>491.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>477.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>488.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="62650936"/>
-        <c:axId val="54910574"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="62650936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="54910574"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="54910574"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62650936"/>
+        <c:crossAx val="42283477"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1504,7 +1504,7 @@
   <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="topLeft" activeCell="K27" activeCellId="1" sqref="A50:A60 K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1832,8 +1832,8 @@
   </sheetPr>
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
